--- a/DKB20_001 BUDGET.xlsx
+++ b/DKB20_001 BUDGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MINEM\Desktop\_HOY\METTE_BARNA_MAYO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F2736-656F-415A-B637-858587118ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EAA340-CDBB-4CF7-8245-8BD3A345EC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E7929E6-4056-4AF5-B092-AFA6C19596F1}"/>
   </bookViews>
@@ -125,12 +125,6 @@
     <t>Philippines Club --dinner menu including starters to share, main couse, dessert and drinks, from</t>
   </si>
   <si>
-    <t>Philippines Club - DJ 3h(dinner + 2 hours party)</t>
-  </si>
-  <si>
-    <t>Philippines Club - Open Bar - rates per person and hour (42 pax x 2 hours)</t>
-  </si>
-  <si>
     <t>16 May</t>
   </si>
   <si>
@@ -140,10 +134,16 @@
     <t xml:space="preserve">TOTAL </t>
   </si>
   <si>
-    <t>Open bar</t>
-  </si>
-  <si>
     <t>DJ</t>
+  </si>
+  <si>
+    <t>Standard open bar, rate per hour and person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines Club - Open Bar - rates per person and hour </t>
+  </si>
+  <si>
+    <t>Philippines Club - DJ 3h</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E60D74D-199B-4209-9CE7-D616435C3523}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,24 +979,35 @@
         <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C21" s="5">
+        <v>84</v>
+      </c>
+      <c r="D21" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>1890</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>500</v>
+      </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1033,32 +1044,32 @@
         <v>29</v>
       </c>
       <c r="C25" s="5">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4">
         <v>53</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
         <v>18.5</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>1554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,25 +1077,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
         <v>500</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -1099,14 +1110,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10">
         <f>SUM(E2:E28)</f>
-        <v>31076.09</v>
+        <v>29186.09</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
